--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -1007,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,6 +1399,10 @@
     <xf numFmtId="164" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,10 +1466,14 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1475,11 +1483,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFCCFFCC"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF3399FF"/>
@@ -2647,25 +2655,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="191"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3432,12 +3440,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="191">
+      <c r="E37" s="193">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="192"/>
-      <c r="G37" s="193"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="195"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3453,11 +3461,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="194" t="s">
+      <c r="E39" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3620,7 +3628,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3637,17 +3645,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3688,7 +3696,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3710,7 +3718,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,7 +3741,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3756,7 +3764,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,7 +3786,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3800,7 +3808,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3822,7 +3830,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3852,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3866,17 +3874,17 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="208">
+      <c r="B13" s="187">
         <v>45085</v>
       </c>
       <c r="C13" s="92">
         <v>45091</v>
       </c>
-      <c r="D13" s="209">
+      <c r="D13" s="188">
         <v>51494</v>
       </c>
       <c r="E13" s="20">
@@ -3888,17 +3896,17 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="208">
+      <c r="B14" s="187">
         <v>45086</v>
       </c>
       <c r="C14" s="92">
         <v>45091</v>
       </c>
-      <c r="D14" s="209">
+      <c r="D14" s="188">
         <v>66933</v>
       </c>
       <c r="E14" s="20">
@@ -3910,17 +3918,17 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="208">
+      <c r="B15" s="187">
         <v>45087</v>
       </c>
       <c r="C15" s="92">
         <v>45091</v>
       </c>
-      <c r="D15" s="209">
+      <c r="D15" s="188">
         <v>48168</v>
       </c>
       <c r="E15" s="20">
@@ -3932,17 +3940,17 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="208">
+      <c r="B16" s="187">
         <v>45088</v>
       </c>
       <c r="C16" s="92">
         <v>45091</v>
       </c>
-      <c r="D16" s="209">
+      <c r="D16" s="188">
         <v>33492</v>
       </c>
       <c r="E16" s="20">
@@ -3954,17 +3962,17 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="208">
+      <c r="B17" s="187">
         <v>45089</v>
       </c>
       <c r="C17" s="92">
         <v>45091</v>
       </c>
-      <c r="D17" s="209">
+      <c r="D17" s="188">
         <v>42332.5</v>
       </c>
       <c r="E17" s="20">
@@ -3976,119 +3984,161 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="208"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="209"/>
+      <c r="B18" s="187">
+        <v>45090</v>
+      </c>
+      <c r="C18" s="210">
+        <v>45097</v>
+      </c>
+      <c r="D18" s="211">
+        <v>56860</v>
+      </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>814175</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="208"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="209"/>
+      <c r="B19" s="187">
+        <v>45091</v>
+      </c>
+      <c r="C19" s="210">
+        <v>45097</v>
+      </c>
+      <c r="D19" s="211">
+        <v>31220.5</v>
+      </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>845395.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="B20" s="187">
+        <v>45092</v>
+      </c>
+      <c r="C20" s="212">
+        <v>45097</v>
+      </c>
+      <c r="D20" s="213">
+        <v>73400</v>
+      </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>918795.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
+      <c r="B21" s="187">
+        <v>45093</v>
+      </c>
+      <c r="C21" s="212">
+        <v>45097</v>
+      </c>
+      <c r="D21" s="213">
+        <v>75056.5</v>
+      </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>993852</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="B22" s="187">
+        <v>45094</v>
+      </c>
+      <c r="C22" s="212">
+        <v>45097</v>
+      </c>
+      <c r="D22" s="213">
+        <v>90873</v>
+      </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1084725</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
+      <c r="B23" s="187">
+        <v>45095</v>
+      </c>
+      <c r="C23" s="212">
+        <v>45097</v>
+      </c>
+      <c r="D23" s="213">
+        <v>73638</v>
+      </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158363</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="B24" s="187">
+        <v>45095</v>
+      </c>
+      <c r="C24" s="212">
+        <v>45097</v>
+      </c>
+      <c r="D24" s="213">
+        <v>200</v>
+      </c>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4097,14 +4147,14 @@
       <c r="D25" s="173"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,14 +4163,14 @@
       <c r="D26" s="173"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4129,14 +4179,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4145,7 +4195,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -4159,7 +4209,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1163643.81</v>
+        <v>-762395.81</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4168,14 +4218,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1163643.81</v>
+        <v>-762395.81</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4184,7 +4234,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -4197,7 +4247,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -4210,7 +4260,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4269,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -4230,7 +4280,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -4241,7 +4291,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -4252,7 +4302,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -4263,7 +4313,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -4274,7 +4324,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -4285,7 +4335,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -4296,7 +4346,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,7 +4355,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4314,7 +4364,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4323,7 +4373,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -4334,7 +4384,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -4345,7 +4395,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -4356,7 +4406,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -4368,7 +4418,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>757315</v>
+        <v>1158563</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -4557,17 +4607,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -4894,10 +4944,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="196" t="s">
+      <c r="H17" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="197"/>
+      <c r="I17" s="199"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4918,8 +4968,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4940,8 +4990,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="199"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="201"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4962,8 +5012,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="199"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="201"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4984,8 +5034,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="199"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="201"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5006,8 +5056,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="199"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5028,8 +5078,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="199"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="201"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5050,8 +5100,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="199"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="201"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5072,8 +5122,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="199"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="201"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5094,8 +5144,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="203"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5595,25 +5645,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="191"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6891,12 +6941,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="191">
+      <c r="E59" s="193">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="192"/>
-      <c r="G59" s="193"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="195"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6912,11 +6962,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="194" t="s">
+      <c r="E61" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="194"/>
-      <c r="G61" s="194"/>
+      <c r="F61" s="196"/>
+      <c r="G61" s="196"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -7097,25 +7147,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="191"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8211,12 +8261,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="191">
+      <c r="E50" s="193">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="192"/>
-      <c r="G50" s="193"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="195"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8232,11 +8282,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="194" t="s">
+      <c r="E52" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8419,17 +8469,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -9068,10 +9118,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="202" t="s">
+      <c r="H31" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="203"/>
+      <c r="I31" s="205"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -9095,8 +9145,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="204"/>
-      <c r="I32" s="205"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="207"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -9120,8 +9170,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="204"/>
-      <c r="I33" s="205"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -9137,8 +9187,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="204"/>
-      <c r="I34" s="205"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -9154,8 +9204,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="204"/>
-      <c r="I35" s="205"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="207"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -9171,8 +9221,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="204"/>
-      <c r="I36" s="205"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -9188,8 +9238,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="206"/>
-      <c r="I37" s="207"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="209"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -9421,25 +9471,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="191"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10468,12 +10518,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="191">
+      <c r="E47" s="193">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="192"/>
-      <c r="G47" s="193"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="195"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10489,11 +10539,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="194" t="s">
+      <c r="E49" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10673,17 +10723,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -11353,10 +11403,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="202" t="s">
+      <c r="H33" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="203"/>
+      <c r="I33" s="205"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -11372,8 +11422,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="204"/>
-      <c r="I34" s="205"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -11389,8 +11439,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="204"/>
-      <c r="I35" s="205"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="207"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -11406,8 +11456,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="204"/>
-      <c r="I36" s="205"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -11423,8 +11473,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="204"/>
-      <c r="I37" s="205"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -11440,8 +11490,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="204"/>
-      <c r="I38" s="205"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="207"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -11457,8 +11507,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="206"/>
-      <c r="I39" s="207"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="209"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -11673,25 +11723,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="191"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12610,12 +12660,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="191">
+      <c r="E47" s="193">
         <f>E43-G43</f>
         <v>250037</v>
       </c>
-      <c r="F47" s="192"/>
-      <c r="G47" s="193"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="195"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -12631,11 +12681,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="194" t="s">
+      <c r="E49" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>9-May-23--10-May-23--13-May-23--15-May-23</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS    DE   J U N I O          2 0 2 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS  11 SUR </t>
   </si>
 </sst>
 </file>
@@ -1403,6 +1409,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1466,14 +1480,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="34" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="34" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1612,6 +1618,58 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="F:\02 IMAGENES\ABASTO 4 CARNES\ADMON----- PEPE-ELIAS\OBRADOR  ZAVALETA  2022\ZAVALETA &amp; OBRADOR  2023\12.-  Zavaleta debe a Obrador 31-May-23.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10791825" y="171450"/>
+          <a:ext cx="6858000" cy="8493760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2316,51 +2374,216 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>168910</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="F:\02 IMAGENES\ABASTO 4 CARNES\ADMON----- PEPE-ELIAS\OBRADOR  ZAVALETA  2022\ZAVALETA &amp; OBRADOR  2023\12.-  Zavaleta debe a Obrador 31-May-23.jpeg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10791825" y="171450"/>
-          <a:ext cx="6858000" cy="8493760"/>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="9891715"/>
+          <a:ext cx="581022" cy="590546"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="9939342"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="9891715"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="9939342"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2655,25 +2878,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3440,12 +3663,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="193">
+      <c r="E37" s="197">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="195"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="199"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,11 +3684,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="196" t="s">
+      <c r="E39" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,8 +3850,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3645,17 +3868,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3991,10 +4214,10 @@
       <c r="B18" s="187">
         <v>45090</v>
       </c>
-      <c r="C18" s="210">
+      <c r="C18" s="189">
         <v>45097</v>
       </c>
-      <c r="D18" s="211">
+      <c r="D18" s="190">
         <v>56860</v>
       </c>
       <c r="E18" s="20">
@@ -4013,10 +4236,10 @@
       <c r="B19" s="187">
         <v>45091</v>
       </c>
-      <c r="C19" s="210">
+      <c r="C19" s="189">
         <v>45097</v>
       </c>
-      <c r="D19" s="211">
+      <c r="D19" s="190">
         <v>31220.5</v>
       </c>
       <c r="E19" s="20">
@@ -4035,10 +4258,10 @@
       <c r="B20" s="187">
         <v>45092</v>
       </c>
-      <c r="C20" s="212">
+      <c r="C20" s="191">
         <v>45097</v>
       </c>
-      <c r="D20" s="213">
+      <c r="D20" s="192">
         <v>73400</v>
       </c>
       <c r="E20" s="20">
@@ -4057,10 +4280,10 @@
       <c r="B21" s="187">
         <v>45093</v>
       </c>
-      <c r="C21" s="212">
+      <c r="C21" s="191">
         <v>45097</v>
       </c>
-      <c r="D21" s="213">
+      <c r="D21" s="192">
         <v>75056.5</v>
       </c>
       <c r="E21" s="20">
@@ -4079,10 +4302,10 @@
       <c r="B22" s="187">
         <v>45094</v>
       </c>
-      <c r="C22" s="212">
+      <c r="C22" s="191">
         <v>45097</v>
       </c>
-      <c r="D22" s="213">
+      <c r="D22" s="192">
         <v>90873</v>
       </c>
       <c r="E22" s="20">
@@ -4101,10 +4324,10 @@
       <c r="B23" s="187">
         <v>45095</v>
       </c>
-      <c r="C23" s="212">
+      <c r="C23" s="191">
         <v>45097</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D23" s="192">
         <v>73638</v>
       </c>
       <c r="E23" s="20">
@@ -4123,10 +4346,10 @@
       <c r="B24" s="187">
         <v>45095</v>
       </c>
-      <c r="C24" s="212">
+      <c r="C24" s="191">
         <v>45097</v>
       </c>
-      <c r="D24" s="213">
+      <c r="D24" s="192">
         <v>200</v>
       </c>
       <c r="E24" s="20">
@@ -4607,17 +4830,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -4944,10 +5167,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="199"/>
+      <c r="I17" s="203"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4968,8 +5191,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="205"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4990,8 +5213,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="205"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5012,8 +5235,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="205"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5034,8 +5257,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="205"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5056,8 +5279,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="205"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5078,8 +5301,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="201"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5100,8 +5323,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="201"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="205"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5122,8 +5345,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="201"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="205"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5144,8 +5367,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="203"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5645,25 +5868,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6941,12 +7164,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="193">
+      <c r="E59" s="197">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="194"/>
-      <c r="G59" s="195"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="199"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6962,11 +7185,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="196" t="s">
+      <c r="E61" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="196"/>
-      <c r="G61" s="196"/>
+      <c r="F61" s="200"/>
+      <c r="G61" s="200"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -7147,25 +7370,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8261,12 +8484,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="193">
+      <c r="E50" s="197">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="194"/>
-      <c r="G50" s="195"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8282,11 +8505,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="196" t="s">
+      <c r="E52" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8469,17 +8692,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -9118,10 +9341,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="204" t="s">
+      <c r="H31" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="205"/>
+      <c r="I31" s="209"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -9145,8 +9368,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="206"/>
-      <c r="I32" s="207"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="211"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -9170,8 +9393,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="211"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -9187,8 +9410,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="211"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -9204,8 +9427,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="206"/>
-      <c r="I35" s="207"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="211"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -9221,8 +9444,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="206"/>
-      <c r="I36" s="207"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="211"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -9238,8 +9461,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="208"/>
-      <c r="I37" s="209"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="213"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -9471,25 +9694,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="193" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10518,12 +10741,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="193">
+      <c r="E47" s="197">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="194"/>
-      <c r="G47" s="195"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="199"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10539,11 +10762,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="196" t="s">
+      <c r="E49" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10723,17 +10946,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -11403,10 +11626,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="204" t="s">
+      <c r="H33" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="205"/>
+      <c r="I33" s="209"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -11422,8 +11645,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="211"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -11439,8 +11662,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="206"/>
-      <c r="I35" s="207"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="211"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -11456,8 +11679,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="206"/>
-      <c r="I36" s="207"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="211"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -11473,8 +11696,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="206"/>
-      <c r="I37" s="207"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="211"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -11490,8 +11713,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="206"/>
-      <c r="I38" s="207"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="211"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -11507,8 +11730,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="208"/>
-      <c r="I39" s="209"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="213"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -11706,7 +11929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11723,25 +11946,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="191"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12660,12 +12883,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="193">
+      <c r="E47" s="197">
         <f>E43-G43</f>
         <v>250037</v>
       </c>
-      <c r="F47" s="194"/>
-      <c r="G47" s="195"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="199"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -12681,11 +12904,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="196" t="s">
+      <c r="E49" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -12844,14 +13067,903 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="162" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
+    <col min="7" max="7" width="18" style="74" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="163"/>
+      <c r="B2" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="164"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165">
+        <v>45080</v>
+      </c>
+      <c r="B4" s="15">
+        <v>785</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="18">
+        <v>21213</v>
+      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H42" si="0">E4-G4</f>
+        <v>21213</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="165">
+        <v>45082</v>
+      </c>
+      <c r="B5" s="15">
+        <v>786</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="21">
+        <v>459</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="165"/>
+      <c r="B6" s="15">
+        <v>787</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="166"/>
+      <c r="B7" s="15">
+        <v>788</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="165"/>
+      <c r="B8" s="15">
+        <v>789</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="165"/>
+      <c r="B9" s="15">
+        <v>790</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="165"/>
+      <c r="B10" s="15">
+        <v>791</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="165"/>
+      <c r="B11" s="15">
+        <v>792</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="165"/>
+      <c r="B12" s="15">
+        <v>793</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="165"/>
+      <c r="B13" s="15">
+        <v>794</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="165"/>
+      <c r="B14" s="15">
+        <v>795</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="165"/>
+      <c r="B15" s="15">
+        <v>796</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="165"/>
+      <c r="B16" s="15">
+        <v>797</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="165"/>
+      <c r="B17" s="15">
+        <v>798</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="165"/>
+      <c r="B18" s="15">
+        <v>799</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="165"/>
+      <c r="B19" s="15">
+        <v>800</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="165"/>
+      <c r="B20" s="15">
+        <v>801</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="165"/>
+      <c r="B21" s="15">
+        <v>802</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="165"/>
+      <c r="B22" s="15">
+        <v>803</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="165"/>
+      <c r="B23" s="15">
+        <v>804</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="165"/>
+      <c r="B24" s="15">
+        <v>805</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="166"/>
+      <c r="B25" s="15">
+        <v>806</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="166"/>
+      <c r="B26" s="15">
+        <v>807</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="166"/>
+      <c r="B27" s="15">
+        <v>808</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="166"/>
+      <c r="B28" s="15">
+        <v>809</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="166"/>
+      <c r="B29" s="15">
+        <v>810</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="166"/>
+      <c r="B30" s="15">
+        <v>811</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="166"/>
+      <c r="B31" s="15">
+        <v>812</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="166"/>
+      <c r="B32" s="15">
+        <v>813</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="166"/>
+      <c r="B33" s="15">
+        <v>814</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="166"/>
+      <c r="B34" s="15">
+        <v>815</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="166"/>
+      <c r="B35" s="15">
+        <v>816</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="166"/>
+      <c r="B36" s="15">
+        <v>817</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="166"/>
+      <c r="B37" s="15">
+        <v>818</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="166"/>
+      <c r="B38" s="15">
+        <v>819</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="166"/>
+      <c r="B39" s="15">
+        <v>820</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="166"/>
+      <c r="B40" s="15">
+        <v>821</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="166"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="167"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="112"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40">
+        <f>SUM(E4:E42)</f>
+        <v>21672</v>
+      </c>
+      <c r="F43" s="113"/>
+      <c r="G43" s="40">
+        <f>SUM(G4:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="41">
+        <f>SUM(H23:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="114"/>
+      <c r="G45" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="197">
+        <f>E43-G43</f>
+        <v>21672</v>
+      </c>
+      <c r="F47" s="198"/>
+      <c r="G47" s="199"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="43"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="51"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="168"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="169"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="169"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="169"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="169"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="169"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="169"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="169"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="169"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="169"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="169"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="58"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="169"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E49:G49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -1013,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,6 +1480,14 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1489,8 +1497,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00FF00"/>
@@ -11928,8 +11936,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11994,7 +12002,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="165">
         <v>45052</v>
       </c>
@@ -12008,8 +12016,8 @@
       <c r="E4" s="18">
         <v>8710</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="217"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H42" si="0">E4-G4</f>
         <v>8710</v>
@@ -12056,8 +12064,8 @@
       <c r="E6" s="21">
         <v>4888</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>4888</v>
@@ -12077,8 +12085,8 @@
       <c r="E7" s="21">
         <v>3300</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>3300</v>
@@ -12098,8 +12106,8 @@
       <c r="E8" s="21">
         <v>8386</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
         <v>8386</v>
@@ -12144,8 +12152,8 @@
       <c r="E10" s="21">
         <v>11672</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
         <v>11672</v>
@@ -12190,8 +12198,8 @@
       <c r="E12" s="21">
         <v>4100</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="215"/>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>4100</v>
@@ -12211,8 +12219,8 @@
       <c r="E13" s="21">
         <v>13313</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="215"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>13313</v>
@@ -12257,8 +12265,8 @@
       <c r="E15" s="21">
         <v>3300</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>3300</v>
@@ -12303,8 +12311,8 @@
       <c r="E17" s="21">
         <v>4470</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>4470</v>
@@ -12324,8 +12332,8 @@
       <c r="E18" s="21">
         <v>13313</v>
       </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>13313</v>
@@ -12395,8 +12403,8 @@
       <c r="E21" s="21">
         <v>28100</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>28100</v>
@@ -12416,8 +12424,8 @@
       <c r="E22" s="21">
         <v>17730</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>17730</v>
@@ -12437,8 +12445,8 @@
       <c r="E23" s="21">
         <v>64302</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>64302</v>
@@ -12508,8 +12516,8 @@
       <c r="E26" s="21">
         <v>22066</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>22066</v>
@@ -12529,8 +12537,8 @@
       <c r="E27" s="21">
         <v>2593</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>2593</v>
@@ -12575,8 +12583,8 @@
       <c r="E29" s="21">
         <v>7250</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>7250</v>
@@ -12646,8 +12654,8 @@
       <c r="E32" s="21">
         <v>11791</v>
       </c>
-      <c r="F32" s="111"/>
-      <c r="G32" s="21"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>11791</v>
@@ -12667,8 +12675,8 @@
       <c r="E33" s="21">
         <v>5820</v>
       </c>
-      <c r="F33" s="111"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>5820</v>
@@ -12688,8 +12696,8 @@
       <c r="E34" s="21">
         <v>4950</v>
       </c>
-      <c r="F34" s="111"/>
-      <c r="G34" s="21"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
         <v>4950</v>
@@ -12709,8 +12717,8 @@
       <c r="E35" s="21">
         <v>8480</v>
       </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="21"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>8480</v>
@@ -12730,11 +12738,15 @@
       <c r="E36" s="21">
         <v>1095</v>
       </c>
-      <c r="F36" s="111"/>
-      <c r="G36" s="21"/>
+      <c r="F36" s="121">
+        <v>45084</v>
+      </c>
+      <c r="G36" s="122">
+        <v>1095</v>
+      </c>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
-        <v>1095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -12751,8 +12763,8 @@
       <c r="E37" s="21">
         <v>408</v>
       </c>
-      <c r="F37" s="111"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
         <v>408</v>
@@ -12837,11 +12849,11 @@
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>46643</v>
+        <v>47738</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>128755</v>
+        <v>127660</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -12885,7 +12897,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="197">
         <f>E43-G43</f>
-        <v>250037</v>
+        <v>248942</v>
       </c>
       <c r="F47" s="198"/>
       <c r="G47" s="199"/>
@@ -13058,7 +13070,8 @@
     <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13070,7 +13083,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13179,63 +13192,87 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
+      <c r="A6" s="165">
+        <v>45084</v>
+      </c>
       <c r="B6" s="15">
         <v>787</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="21">
+        <v>707</v>
+      </c>
       <c r="F6" s="111"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
+      <c r="A7" s="166">
+        <v>45084</v>
+      </c>
       <c r="B7" s="15">
         <v>788</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3993</v>
+      </c>
       <c r="F7" s="111"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
+      <c r="A8" s="165">
+        <v>45085</v>
+      </c>
       <c r="B8" s="15">
         <v>789</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="21">
+        <v>20412</v>
+      </c>
       <c r="F8" s="111"/>
       <c r="G8" s="21"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20412</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="165"/>
+      <c r="A9" s="165">
+        <v>45085</v>
+      </c>
       <c r="B9" s="15">
         <v>790</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1716</v>
+      </c>
       <c r="F9" s="111"/>
       <c r="G9" s="21"/>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -13738,7 +13775,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>21672</v>
+        <v>48500</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
@@ -13791,7 +13828,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="197">
         <f>E43-G43</f>
-        <v>21672</v>
+        <v>48500</v>
       </c>
       <c r="F47" s="198"/>
       <c r="G47" s="199"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -1013,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,6 +1417,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="34" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,14 +1488,7 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2886,25 +2887,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3671,12 +3672,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="197">
+      <c r="E37" s="201">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="198"/>
-      <c r="G37" s="199"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="203"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3692,11 +3693,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="200" t="s">
+      <c r="E39" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3876,17 +3877,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4838,17 +4839,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -5175,10 +5176,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="203"/>
+      <c r="I17" s="207"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5199,8 +5200,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="205"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="209"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5221,8 +5222,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="205"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="209"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5243,8 +5244,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="205"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="209"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5265,8 +5266,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="205"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="209"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5287,8 +5288,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="205"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="209"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5309,8 +5310,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="209"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5331,8 +5332,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="205"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="209"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5353,8 +5354,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="205"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="209"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5375,8 +5376,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="211"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5876,25 +5877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7172,12 +7173,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="197">
+      <c r="E59" s="201">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="198"/>
-      <c r="G59" s="199"/>
+      <c r="F59" s="202"/>
+      <c r="G59" s="203"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7193,11 +7194,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="200" t="s">
+      <c r="E61" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
+      <c r="F61" s="204"/>
+      <c r="G61" s="204"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -7378,25 +7379,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8492,12 +8493,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="197">
+      <c r="E50" s="201">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="203"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8513,11 +8514,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="200" t="s">
+      <c r="E52" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="200"/>
-      <c r="G52" s="200"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8700,17 +8701,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -9349,10 +9350,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="208" t="s">
+      <c r="H31" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="209"/>
+      <c r="I31" s="213"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -9376,8 +9377,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="210"/>
-      <c r="I32" s="211"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="215"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -9401,8 +9402,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="210"/>
-      <c r="I33" s="211"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -9418,8 +9419,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="210"/>
-      <c r="I34" s="211"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -9435,8 +9436,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="210"/>
-      <c r="I35" s="211"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -9452,8 +9453,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="210"/>
-      <c r="I36" s="211"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -9469,8 +9470,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="212"/>
-      <c r="I37" s="213"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="217"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -9702,25 +9703,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10749,12 +10750,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="197">
+      <c r="E47" s="201">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10770,11 +10771,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="200" t="s">
+      <c r="E49" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10954,17 +10955,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -11634,10 +11635,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="208" t="s">
+      <c r="H33" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="209"/>
+      <c r="I33" s="213"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -11653,8 +11654,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="210"/>
-      <c r="I34" s="211"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -11670,8 +11671,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="210"/>
-      <c r="I35" s="211"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -11687,8 +11688,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="210"/>
-      <c r="I36" s="211"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -11704,8 +11705,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="210"/>
-      <c r="I37" s="211"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="215"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -11721,8 +11722,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="210"/>
-      <c r="I38" s="211"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="215"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -11738,8 +11739,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="212"/>
-      <c r="I39" s="213"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="217"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -11954,25 +11955,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12016,8 +12017,8 @@
       <c r="E4" s="18">
         <v>8710</v>
       </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="217"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H42" si="0">E4-G4</f>
         <v>8710</v>
@@ -12198,8 +12199,8 @@
       <c r="E12" s="21">
         <v>4100</v>
       </c>
-      <c r="F12" s="214"/>
-      <c r="G12" s="215"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="194"/>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>4100</v>
@@ -12219,8 +12220,8 @@
       <c r="E13" s="21">
         <v>13313</v>
       </c>
-      <c r="F13" s="214"/>
-      <c r="G13" s="215"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>13313</v>
@@ -12895,12 +12896,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="197">
+      <c r="E47" s="201">
         <f>E43-G43</f>
         <v>248942</v>
       </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -12916,11 +12917,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="200" t="s">
+      <c r="E49" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13083,7 +13084,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13100,25 +13101,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13205,11 +13206,15 @@
       <c r="E6" s="21">
         <v>707</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="111">
+        <v>45091</v>
+      </c>
+      <c r="G6" s="21">
+        <v>707</v>
+      </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -13276,43 +13281,61 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
+      <c r="A10" s="165">
+        <v>45089</v>
+      </c>
       <c r="B10" s="15">
         <v>791</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21">
+        <v>16765</v>
+      </c>
       <c r="F10" s="111"/>
       <c r="G10" s="21"/>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16765</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
+      <c r="A11" s="165">
+        <v>45089</v>
+      </c>
       <c r="B11" s="15">
         <v>792</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="21">
+        <v>8298</v>
+      </c>
       <c r="F11" s="111"/>
       <c r="G11" s="21"/>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
+      <c r="A12" s="165">
+        <v>45089</v>
+      </c>
       <c r="B12" s="15">
         <v>793</v>
       </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="218">
+        <v>0</v>
+      </c>
       <c r="F12" s="111"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19">
@@ -13321,63 +13344,87 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="165">
+        <v>45091</v>
+      </c>
       <c r="B13" s="15">
         <v>794</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1169</v>
+      </c>
       <c r="F13" s="111"/>
       <c r="G13" s="21"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
+      <c r="A14" s="165">
+        <v>45093</v>
+      </c>
       <c r="B14" s="15">
         <v>795</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="21">
+        <v>11368</v>
+      </c>
       <c r="F14" s="111"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11368</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
+      <c r="A15" s="165">
+        <v>45094</v>
+      </c>
       <c r="B15" s="15">
         <v>796</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3100</v>
+      </c>
       <c r="F15" s="111"/>
       <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
+      <c r="A16" s="165">
+        <v>45094</v>
+      </c>
       <c r="B16" s="15">
         <v>797</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="21">
+        <v>22139</v>
+      </c>
       <c r="F16" s="111"/>
       <c r="G16" s="21"/>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22139</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -13775,12 +13822,12 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>48500</v>
+        <v>111339</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
@@ -13826,12 +13873,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="197">
+      <c r="E47" s="201">
         <f>E43-G43</f>
-        <v>48500</v>
-      </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199"/>
+        <v>110632</v>
+      </c>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13847,11 +13894,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="200" t="s">
+      <c r="E49" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -1425,6 +1425,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,7 +1489,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2887,25 +2887,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3672,12 +3672,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="201">
+      <c r="E37" s="202">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="202"/>
-      <c r="G37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="204"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3693,11 +3693,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="204" t="s">
+      <c r="E39" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3859,8 +3859,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3877,17 +3877,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3928,7 +3928,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,7 +4062,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,7 +4194,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,7 +4282,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,7 +4326,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,7 +4348,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,64 +4370,88 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
+      <c r="B25" s="91">
+        <v>45096</v>
+      </c>
+      <c r="C25" s="172">
+        <v>45103</v>
+      </c>
+      <c r="D25" s="173">
+        <v>27709</v>
+      </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1186272</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="B26" s="91">
+        <v>45097</v>
+      </c>
+      <c r="C26" s="172">
+        <v>45103</v>
+      </c>
+      <c r="D26" s="173">
+        <v>57664</v>
+      </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1243936</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="91">
+        <v>45098</v>
+      </c>
+      <c r="C27" s="178">
+        <v>45103</v>
+      </c>
+      <c r="D27" s="21">
+        <v>33983</v>
+      </c>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1277919</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="91"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="91">
+        <v>45099</v>
+      </c>
+      <c r="C28" s="178">
+        <v>45103</v>
+      </c>
+      <c r="D28" s="21">
+        <v>75551.5</v>
+      </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1353470.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -4441,32 +4465,44 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-762395.81</v>
+        <v>-461263.31000000006</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="91">
+        <v>45100</v>
+      </c>
+      <c r="C29" s="178">
+        <v>45103</v>
+      </c>
+      <c r="D29" s="21">
+        <v>48895</v>
+      </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1402365.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-762395.81</v>
+        <v>-461263.31000000006</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="91">
+        <v>45101</v>
+      </c>
+      <c r="C30" s="178">
+        <v>45103</v>
+      </c>
+      <c r="D30" s="21">
+        <v>57330</v>
+      </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -4479,7 +4515,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -4492,7 +4528,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,7 +4537,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -4512,7 +4548,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -4523,7 +4559,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -4534,7 +4570,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -4545,7 +4581,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -4556,7 +4592,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -4567,7 +4603,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -4578,7 +4614,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,7 +4623,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,7 +4632,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4605,7 +4641,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -4616,7 +4652,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -4627,7 +4663,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -4638,7 +4674,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -4650,7 +4686,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1158563</v>
+        <v>1459695.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -4839,17 +4875,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -5176,10 +5212,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="206" t="s">
+      <c r="H17" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="207"/>
+      <c r="I17" s="208"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5200,8 +5236,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="210"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5222,8 +5258,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="210"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5244,8 +5280,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="210"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5266,8 +5302,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="210"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5288,8 +5324,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="210"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5310,8 +5346,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5332,8 +5368,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="210"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5354,8 +5390,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="210"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5376,8 +5412,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5877,25 +5913,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7173,12 +7209,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="201">
+      <c r="E59" s="202">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="202"/>
-      <c r="G59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="204"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7194,11 +7230,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="204" t="s">
+      <c r="E61" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="204"/>
-      <c r="G61" s="204"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="205"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -7379,25 +7415,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8493,12 +8529,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="201">
+      <c r="E50" s="202">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="202"/>
-      <c r="G50" s="203"/>
+      <c r="F50" s="203"/>
+      <c r="G50" s="204"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8514,11 +8550,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="204" t="s">
+      <c r="E52" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="205"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8701,17 +8737,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -9350,10 +9386,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="212" t="s">
+      <c r="H31" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="213"/>
+      <c r="I31" s="214"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -9377,8 +9413,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="214"/>
-      <c r="I32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="216"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -9402,8 +9438,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="214"/>
-      <c r="I33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="216"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -9419,8 +9455,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="214"/>
-      <c r="I34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="216"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -9436,8 +9472,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="214"/>
-      <c r="I35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="216"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -9453,8 +9489,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="214"/>
-      <c r="I36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="216"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -9470,8 +9506,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="216"/>
-      <c r="I37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="218"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -9703,25 +9739,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10750,12 +10786,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="201">
+      <c r="E47" s="202">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="204"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10771,11 +10807,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="204" t="s">
+      <c r="E49" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="204"/>
-      <c r="G49" s="204"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10955,17 +10991,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -11635,10 +11671,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="212" t="s">
+      <c r="H33" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="213"/>
+      <c r="I33" s="214"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -11654,8 +11690,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="214"/>
-      <c r="I34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="216"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -11671,8 +11707,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="214"/>
-      <c r="I35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="216"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -11688,8 +11724,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="214"/>
-      <c r="I36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="216"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -11705,8 +11741,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="214"/>
-      <c r="I37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -11722,8 +11758,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="214"/>
-      <c r="I38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="216"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -11739,8 +11775,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="216"/>
-      <c r="I39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="218"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -11955,25 +11991,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12896,12 +12932,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="201">
+      <c r="E47" s="202">
         <f>E43-G43</f>
         <v>248942</v>
       </c>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="204"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -12917,11 +12953,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="204" t="s">
+      <c r="E49" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="204"/>
-      <c r="G49" s="204"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13083,7 +13119,7 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -13101,25 +13137,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13333,7 +13369,7 @@
       <c r="D12" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="218">
+      <c r="E12" s="197">
         <v>0</v>
       </c>
       <c r="F12" s="111"/>
@@ -13873,12 +13909,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="201">
+      <c r="E47" s="202">
         <f>E43-G43</f>
         <v>110632</v>
       </c>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="204"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13894,11 +13930,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="204" t="s">
+      <c r="E49" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="204"/>
-      <c r="G49" s="204"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -3859,8 +3859,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3928,7 +3928,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,7 +4062,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,7 +4194,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,7 +4282,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,7 +4326,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,7 +4348,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,7 +4370,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4414,7 +4414,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4436,7 +4436,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-461263.31000000006</v>
+        <v>-258235.81000000006</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4487,7 +4487,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-461263.31000000006</v>
+        <v>-258235.81000000006</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4510,12 +4510,18 @@
       <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="102"/>
+      <c r="B31" s="52">
+        <v>45102</v>
+      </c>
+      <c r="C31" s="179">
+        <v>45107</v>
+      </c>
+      <c r="D31" s="102">
+        <v>55293</v>
+      </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1514988.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -4523,32 +4529,50 @@
       <c r="J31" s="100"/>
     </row>
     <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="103"/>
+      <c r="B32" s="82">
+        <v>45133</v>
+      </c>
+      <c r="C32" s="87">
+        <v>45107</v>
+      </c>
+      <c r="D32" s="103">
+        <v>51884.5</v>
+      </c>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1566873</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="82">
+        <v>45104</v>
+      </c>
+      <c r="C33" s="87">
+        <v>45107</v>
+      </c>
+      <c r="D33" s="103">
+        <v>66000</v>
+      </c>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1632873</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="82"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="82">
+        <v>45105</v>
+      </c>
+      <c r="C34" s="87">
+        <v>45107</v>
+      </c>
+      <c r="D34" s="103">
+        <v>29850</v>
+      </c>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -4559,7 +4583,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -4570,7 +4594,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -4581,7 +4605,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -4592,7 +4616,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -4603,7 +4627,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -4614,7 +4638,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,7 +4647,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4656,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4641,7 +4665,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -4652,7 +4676,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -4663,7 +4687,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -4674,7 +4698,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -4686,7 +4710,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1459695.5</v>
+        <v>1662723</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -13119,7 +13143,7 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -22,8 +22,8 @@
     <sheet name="   M A Y O     2 0 2 3         " sheetId="9" r:id="rId8"/>
     <sheet name="  J U N I O        2 0 2 3     " sheetId="15" r:id="rId9"/>
     <sheet name="PAGOS ZAVALET  &amp; OBRADOR JUNIO " sheetId="10" r:id="rId10"/>
-    <sheet name="Hoja3" sheetId="11" r:id="rId11"/>
-    <sheet name="Hoja1" sheetId="12" r:id="rId12"/>
+    <sheet name="    J U L I O    2 0 2 3       " sheetId="11" r:id="rId11"/>
+    <sheet name="PAGOS ZAVALET &amp; Odelap  JULIO23" sheetId="12" r:id="rId12"/>
     <sheet name="Hoja2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -272,7 +272,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +555,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1013,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,6 +1505,11 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1498,6 +1519,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF9966FF"/>
@@ -1506,7 +1528,6 @@
       <color rgb="FFCC99FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF3399FF"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFCC6600"/>
     </mruColors>
   </colors>
@@ -1636,16 +1657,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>168910</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>321310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,7 +1688,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10791825" y="171450"/>
+          <a:off x="10296525" y="0"/>
           <a:ext cx="6858000" cy="8493760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1677,6 +1698,49 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>594</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>256420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="200025"/>
+          <a:ext cx="6858594" cy="8876545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3859,8 +3923,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3928,7 +3992,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,7 +4014,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,7 +4037,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,7 +4060,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4082,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4104,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,7 +4126,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4148,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,7 +4170,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,7 +4192,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4214,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,7 +4236,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,7 +4258,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4280,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4302,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4324,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,7 +4346,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,7 +4368,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,7 +4390,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,7 +4412,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,7 +4434,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4456,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4414,7 +4478,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4436,7 +4500,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4465,7 +4529,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-258235.81000000006</v>
+        <v>200.18999999994412</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4487,7 +4551,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-258235.81000000006</v>
+        <v>200.18999999994412</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4578,67 +4642,97 @@
       <c r="I34" s="161"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="219">
+        <v>45106</v>
+      </c>
+      <c r="C35" s="220">
+        <v>45111</v>
+      </c>
+      <c r="D35" s="221">
+        <v>50692</v>
+      </c>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1713415</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="219">
+        <v>45107</v>
+      </c>
+      <c r="C36" s="220">
+        <v>45111</v>
+      </c>
+      <c r="D36" s="221">
+        <v>69329.5</v>
+      </c>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1782744.5</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="84"/>
+      <c r="B37" s="219">
+        <v>45108</v>
+      </c>
+      <c r="C37" s="220">
+        <v>45111</v>
+      </c>
+      <c r="D37" s="221">
+        <v>58369</v>
+      </c>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1841113.5</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="219">
+        <v>45109</v>
+      </c>
+      <c r="C38" s="220">
+        <v>45111</v>
+      </c>
+      <c r="D38" s="221">
+        <v>39831.5</v>
+      </c>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1880945</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="84"/>
+      <c r="B39" s="219">
+        <v>45110</v>
+      </c>
+      <c r="C39" s="220">
+        <v>45111</v>
+      </c>
+      <c r="D39" s="221">
+        <v>40214</v>
+      </c>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="84"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,7 +4741,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,7 +4750,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4665,7 +4759,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -4676,7 +4770,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -4687,7 +4781,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -4698,7 +4792,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -4710,7 +4804,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1662723</v>
+        <v>1921159</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -4820,10 +4914,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FFFF"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4834,29 +4931,780 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A12"/>
+  <sheetPr>
+    <tabColor rgb="FF00FFFF"/>
+  </sheetPr>
+  <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="Z2" s="153"/>
+    </row>
+    <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+    </row>
+    <row r="4" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="82"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="20">
+        <f>E47+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="82"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="20">
+        <f>J4+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="82"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E47" si="0">E5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J29" si="1">J5+I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="82"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="91"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="91"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="91"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="91"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="91"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="91"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="91"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="91"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="91"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="91"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="91"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="97"/>
+      <c r="G28" s="180">
+        <v>45077</v>
+      </c>
+      <c r="H28" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="181">
+        <v>-1988652.52</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="1"/>
+        <v>-1988652.52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="20">
+        <f t="shared" si="1"/>
+        <v>-1988652.52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+    </row>
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="82"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="82"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+    </row>
+    <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="82"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+    </row>
+    <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+    </row>
+    <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="82"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+    </row>
+    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="82"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+    </row>
+    <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+    </row>
+    <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+    </row>
+    <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="82"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="82"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="82"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="82"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="126"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="44" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="82"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+    </row>
+    <row r="45" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="82"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="126"/>
+      <c r="J45" s="125"/>
+    </row>
+    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="82"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="82"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="125"/>
+    </row>
+    <row r="48" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="81"/>
+      <c r="D48"/>
+      <c r="E48" s="104"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="81"/>
+      <c r="D49"/>
+      <c r="E49" s="104"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="81"/>
+      <c r="D50"/>
+      <c r="E50" s="104"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="81"/>
+      <c r="D51"/>
+      <c r="E51" s="104"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="81"/>
+      <c r="D52"/>
+      <c r="E52" s="104"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="81"/>
+      <c r="D53"/>
+      <c r="E53" s="104"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="132"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="135"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="132"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="135"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="132"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="132"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="135"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="132"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="139"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="139"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13144,7 +13992,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13333,11 +14181,15 @@
       <c r="E9" s="21">
         <v>1716</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="111">
+        <v>45101</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1716</v>
+      </c>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>1716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -13417,11 +14269,15 @@
       <c r="E13" s="21">
         <v>1169</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="111">
+        <v>45098</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1169</v>
+      </c>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>1169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -13488,78 +14344,108 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
+      <c r="A17" s="165">
+        <v>45096</v>
+      </c>
       <c r="B17" s="15">
         <v>798</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3100</v>
+      </c>
       <c r="F17" s="111"/>
       <c r="G17" s="21"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
+      <c r="A18" s="165">
+        <v>45098</v>
+      </c>
       <c r="B18" s="15">
         <v>799</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="21">
+        <v>887</v>
+      </c>
       <c r="F18" s="111"/>
       <c r="G18" s="21"/>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
+      <c r="A19" s="165">
+        <v>45100</v>
+      </c>
       <c r="B19" s="15">
         <v>800</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="21">
+        <v>14918</v>
+      </c>
       <c r="F19" s="111"/>
       <c r="G19" s="21"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14918</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
+      <c r="A20" s="165">
+        <v>45100</v>
+      </c>
       <c r="B20" s="15">
         <v>801</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="21">
+        <v>529</v>
+      </c>
       <c r="F20" s="111"/>
       <c r="G20" s="21"/>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="165">
+        <v>45103</v>
+      </c>
       <c r="B21" s="15">
         <v>802</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="21">
+        <v>605</v>
+      </c>
       <c r="F21" s="111"/>
       <c r="G21" s="21"/>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -13882,12 +14768,12 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>111339</v>
+        <v>131378</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>707</v>
+        <v>3592</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
@@ -13935,7 +14821,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="202">
         <f>E43-G43</f>
-        <v>110632</v>
+        <v>127786</v>
       </c>
       <c r="F47" s="203"/>
       <c r="G47" s="204"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -1442,6 +1442,11 @@
     </xf>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1505,11 +1510,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2951,25 +2951,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3736,12 +3736,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="202">
+      <c r="E37" s="205">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="203"/>
-      <c r="G37" s="204"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="207"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3757,11 +3757,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="205" t="s">
+      <c r="E39" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3941,17 +3941,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4642,13 +4642,13 @@
       <c r="I34" s="161"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="219">
+      <c r="B35" s="198">
         <v>45106</v>
       </c>
-      <c r="C35" s="220">
+      <c r="C35" s="199">
         <v>45111</v>
       </c>
-      <c r="D35" s="221">
+      <c r="D35" s="200">
         <v>50692</v>
       </c>
       <c r="E35" s="20">
@@ -4659,13 +4659,13 @@
       <c r="I35" s="161"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="219">
+      <c r="B36" s="198">
         <v>45107</v>
       </c>
-      <c r="C36" s="220">
+      <c r="C36" s="199">
         <v>45111</v>
       </c>
-      <c r="D36" s="221">
+      <c r="D36" s="200">
         <v>69329.5</v>
       </c>
       <c r="E36" s="20">
@@ -4676,13 +4676,13 @@
       <c r="I36" s="161"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="219">
+      <c r="B37" s="198">
         <v>45108</v>
       </c>
-      <c r="C37" s="220">
+      <c r="C37" s="199">
         <v>45111</v>
       </c>
-      <c r="D37" s="221">
+      <c r="D37" s="200">
         <v>58369</v>
       </c>
       <c r="E37" s="20">
@@ -4693,13 +4693,13 @@
       <c r="I37" s="161"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="219">
+      <c r="B38" s="198">
         <v>45109</v>
       </c>
-      <c r="C38" s="220">
+      <c r="C38" s="199">
         <v>45111</v>
       </c>
-      <c r="D38" s="221">
+      <c r="D38" s="200">
         <v>39831.5</v>
       </c>
       <c r="E38" s="20">
@@ -4710,13 +4710,13 @@
       <c r="I38" s="161"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="219">
+      <c r="B39" s="198">
         <v>45110</v>
       </c>
-      <c r="C39" s="220">
+      <c r="C39" s="199">
         <v>45111</v>
       </c>
-      <c r="D39" s="221">
+      <c r="D39" s="200">
         <v>40214</v>
       </c>
       <c r="E39" s="20">
@@ -4727,9 +4727,9 @@
       <c r="I39" s="161"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="219"/>
-      <c r="C40" s="220"/>
-      <c r="D40" s="221"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
         <v>1921159</v>
@@ -4954,17 +4954,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -5747,17 +5747,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6084,10 +6084,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="207" t="s">
+      <c r="H17" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="208"/>
+      <c r="I17" s="211"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6108,8 +6108,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="210"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="213"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6130,8 +6130,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="210"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6152,8 +6152,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="210"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6174,8 +6174,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="210"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6196,8 +6196,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="210"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6218,8 +6218,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="210"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="213"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6240,8 +6240,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="210"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="213"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6262,8 +6262,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="210"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="213"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6284,8 +6284,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="212"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="215"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6785,25 +6785,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8081,12 +8081,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="202">
+      <c r="E59" s="205">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="203"/>
-      <c r="G59" s="204"/>
+      <c r="F59" s="206"/>
+      <c r="G59" s="207"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8102,11 +8102,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="205" t="s">
+      <c r="E61" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
+      <c r="F61" s="208"/>
+      <c r="G61" s="208"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -8287,25 +8287,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9401,12 +9401,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="202">
+      <c r="E50" s="205">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="203"/>
-      <c r="G50" s="204"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="207"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -9422,11 +9422,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="205" t="s">
+      <c r="E52" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="205"/>
-      <c r="G52" s="205"/>
+      <c r="F52" s="208"/>
+      <c r="G52" s="208"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -9609,17 +9609,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -10258,10 +10258,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="213" t="s">
+      <c r="H31" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="214"/>
+      <c r="I31" s="217"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -10285,8 +10285,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="215"/>
-      <c r="I32" s="216"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="219"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -10310,8 +10310,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="215"/>
-      <c r="I33" s="216"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="219"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -10327,8 +10327,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="215"/>
-      <c r="I34" s="216"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="219"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -10344,8 +10344,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="215"/>
-      <c r="I35" s="216"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="219"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -10361,8 +10361,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="215"/>
-      <c r="I36" s="216"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="219"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -10378,8 +10378,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="217"/>
-      <c r="I37" s="218"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="221"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -10611,25 +10611,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11658,12 +11658,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="202">
+      <c r="E47" s="205">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="203"/>
-      <c r="G47" s="204"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="207"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -11679,11 +11679,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="205" t="s">
+      <c r="E49" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -11863,17 +11863,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -12543,10 +12543,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="213" t="s">
+      <c r="H33" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="214"/>
+      <c r="I33" s="217"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -12562,8 +12562,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="215"/>
-      <c r="I34" s="216"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="219"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -12579,8 +12579,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="215"/>
-      <c r="I35" s="216"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="219"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -12596,8 +12596,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="215"/>
-      <c r="I36" s="216"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="219"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -12613,8 +12613,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="215"/>
-      <c r="I37" s="216"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="219"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -12630,8 +12630,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="215"/>
-      <c r="I38" s="216"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="219"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -12647,8 +12647,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="217"/>
-      <c r="I39" s="218"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="221"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -12863,25 +12863,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13804,12 +13804,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="202">
+      <c r="E47" s="205">
         <f>E43-G43</f>
         <v>248942</v>
       </c>
-      <c r="F47" s="203"/>
-      <c r="G47" s="204"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="207"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13825,11 +13825,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="205" t="s">
+      <c r="E49" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13992,7 +13992,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14009,25 +14009,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="B2" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14441,41 +14441,57 @@
       <c r="E21" s="21">
         <v>605</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="111">
+        <v>45104</v>
+      </c>
+      <c r="G21" s="21">
+        <v>605</v>
+      </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="165">
+        <v>45104</v>
+      </c>
       <c r="B22" s="15">
         <v>803</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="21">
+        <v>14801</v>
+      </c>
       <c r="F22" s="111"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14801</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
+      <c r="A23" s="165">
+        <v>45104</v>
+      </c>
       <c r="B23" s="15">
         <v>804</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="21">
+        <v>281</v>
+      </c>
       <c r="F23" s="111"/>
       <c r="G23" s="21"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -14768,16 +14784,16 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>131378</v>
+        <v>146460</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>3592</v>
+        <v>4197</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -14819,12 +14835,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="202">
+      <c r="E47" s="205">
         <f>E43-G43</f>
-        <v>127786</v>
-      </c>
-      <c r="F47" s="203"/>
-      <c r="G47" s="204"/>
+        <v>142263</v>
+      </c>
+      <c r="F47" s="206"/>
+      <c r="G47" s="207"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -14840,11 +14856,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="205" t="s">
+      <c r="E49" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">ABASTOS  11 SUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -13991,8 +13994,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14378,11 +14381,15 @@
       <c r="E18" s="21">
         <v>887</v>
       </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="111">
+        <v>45105</v>
+      </c>
+      <c r="G18" s="21">
+        <v>887</v>
+      </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14400,10 +14407,12 @@
         <v>14918</v>
       </c>
       <c r="F19" s="111"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19">
-        <f t="shared" si="0"/>
-        <v>14918</v>
+      <c r="G19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14495,18 +14504,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
+      <c r="A24" s="165">
+        <v>45105</v>
+      </c>
       <c r="B24" s="15">
         <v>805</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1403</v>
+      </c>
       <c r="F24" s="111"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14784,16 +14799,16 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>146460</v>
+        <v>147863</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>4197</v>
+        <v>5084</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>281</v>
+        <v>1684</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -14837,7 +14852,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="205">
         <f>E43-G43</f>
-        <v>142263</v>
+        <v>142779</v>
       </c>
       <c r="F47" s="206"/>
       <c r="G47" s="207"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS     ZAVALETA   Junio     2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -2454,13 +2454,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2507,13 +2507,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2560,13 +2560,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2613,13 +2613,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3926,8 +3926,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11848,7 +11848,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="J22" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -13992,10 +13992,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14077,7 +14077,7 @@
       <c r="F4" s="119"/>
       <c r="G4" s="120"/>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H42" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H33" si="0">E4-G4</f>
         <v>21213</v>
       </c>
       <c r="I4" s="2"/>
@@ -14525,99 +14525,135 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="166"/>
+      <c r="A25" s="166">
+        <v>45106</v>
+      </c>
       <c r="B25" s="15">
         <v>806</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="21">
+        <v>4664</v>
+      </c>
       <c r="F25" s="111"/>
       <c r="G25" s="21"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="166"/>
+      <c r="A26" s="166">
+        <v>45106</v>
+      </c>
       <c r="B26" s="15">
         <v>807</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="21">
+        <v>18395</v>
+      </c>
       <c r="F26" s="111"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18395</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="166"/>
+      <c r="A27" s="166">
+        <v>45106</v>
+      </c>
       <c r="B27" s="15">
         <v>808</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="21">
+        <v>265</v>
+      </c>
       <c r="F27" s="111"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="166"/>
+      <c r="A28" s="166">
+        <v>45107</v>
+      </c>
       <c r="B28" s="15">
         <v>809</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="21">
+        <v>14981</v>
+      </c>
       <c r="F28" s="111"/>
       <c r="G28" s="21"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14981</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="166"/>
+      <c r="A29" s="166">
+        <v>45107</v>
+      </c>
       <c r="B29" s="15">
         <v>810</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="21">
+        <v>580</v>
+      </c>
       <c r="F29" s="111"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="166"/>
+      <c r="A30" s="166">
+        <v>45107</v>
+      </c>
       <c r="B30" s="15">
         <v>811</v>
       </c>
       <c r="C30" s="27"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1152</v>
+      </c>
       <c r="F30" s="111"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="166"/>
       <c r="B31" s="15">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="17"/>
@@ -14629,11 +14665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="166"/>
-      <c r="B32" s="15">
-        <v>813</v>
-      </c>
+      <c r="B32" s="15"/>
       <c r="C32" s="27"/>
       <c r="D32" s="17"/>
       <c r="E32" s="21"/>
@@ -14644,257 +14678,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="166"/>
-      <c r="B33" s="15">
-        <v>814</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="21"/>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="167"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="112"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="166"/>
-      <c r="B34" s="15">
-        <v>815</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40">
+        <f>SUM(E4:E33)</f>
+        <v>187900</v>
+      </c>
+      <c r="F34" s="113"/>
+      <c r="G34" s="40">
+        <f>SUM(G4:G33)</f>
+        <v>5084</v>
+      </c>
+      <c r="H34" s="41">
+        <f>SUM(H23:H33)</f>
+        <v>41721</v>
+      </c>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="166"/>
-      <c r="B35" s="15">
-        <v>816</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
-      <c r="B36" s="15">
-        <v>817</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="166"/>
-      <c r="B37" s="15">
-        <v>818</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="166"/>
-      <c r="B38" s="15">
-        <v>819</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="114"/>
+      <c r="G36" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="205">
+        <f>E34-G34</f>
+        <v>182816</v>
+      </c>
+      <c r="F38" s="206"/>
+      <c r="G38" s="207"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="166"/>
-      <c r="B39" s="15">
-        <v>820</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="166"/>
-      <c r="B40" s="15">
-        <v>821</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="166"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="167"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35">
-        <v>0</v>
-      </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="43"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="51"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="168"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40">
-        <f>SUM(E4:E42)</f>
-        <v>147863</v>
-      </c>
-      <c r="F43" s="113"/>
-      <c r="G43" s="40">
-        <f>SUM(G4:G42)</f>
-        <v>5084</v>
-      </c>
-      <c r="H43" s="41">
-        <f>SUM(H23:H42)</f>
-        <v>1684</v>
-      </c>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="169"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="58"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="58"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="114"/>
-      <c r="G45" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="44"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="169"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="58"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="44"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="169"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="205">
-        <f>E43-G43</f>
-        <v>142779</v>
-      </c>
-      <c r="F47" s="206"/>
-      <c r="G47" s="207"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="169"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="58"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="43"/>
+      <c r="A48" s="169"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="58"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="208" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="169"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="58"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="51"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="168"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="56"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="169"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="64"/>
       <c r="H51" s="58"/>
       <c r="I51" s="2"/>
     </row>
@@ -14907,122 +14907,23 @@
       <c r="F52" s="116"/>
       <c r="G52" s="64"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="169"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="169"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="169"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="169"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="169"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="169"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="169"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="169"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="169"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="58"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="169"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
